--- a/processed_output_of_structural_content_of_sample_data.xlsx
+++ b/processed_output_of_structural_content_of_sample_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="753">
   <si>
     <t>rownum</t>
   </si>
@@ -52,39 +52,39 @@
     <t>emoji_unique_list</t>
   </si>
   <si>
-    <t>Show your hands panther fans 🤚</t>
+    <t>Show your 🤚 hands panther fans 🤚</t>
   </si>
   <si>
     <t>@user92 @user14 so many people</t>
   </si>
   <si>
+    <t>🧡💙Let's go panthers!💙🧡</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>RT @here @there @everywhere #hashtag #emojitest is all 4️⃣ ❤️ more 🇦🇺 👨🏾‍👩🏾‍👧🏾‍👦🏾txt and more!!! https://www.url.com 🧵👨🏾‍👩🏾‍👧🏾‍👦🏾👩🏾‍💻👪🏿 🗳️🗳 😃 🟠https://www.url.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@user36 @user37 @user38 @user39 @user40 Today!👇👇👇  </t>
+  </si>
+  <si>
+    <t>snowtastrophe out there be carefulz 🌨❄️</t>
+  </si>
+  <si>
     <t xml:space="preserve">RT @user19 @user42 @user11 no foolin! ⬇️ He’s not playing. </t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>RT @here @there @everywhere #hashtag #emojitest is all 4️⃣ ❤️ more 🇦🇺 👨🏾‍👩🏾‍👧🏾‍👦🏾txt and more!!! https://www.url.com 🧵👨🏾‍👩🏾‍👧🏾‍👦🏾👩🏾‍💻👪🏿 🗳️🗳 😃 🟠https://www.url.com</t>
+    <t>This is my fav place 🍜🍲😋 ❤️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @user31 @user22 @user91  💥UPDATE! 💥 this breaking news just in that </t>
   </si>
   <si>
     <t>Time for happy hour! Going to Rossi's @user103 https://www.url.com</t>
   </si>
   <si>
-    <t>snowtastrophe out there be carefulz 🌨❄️</t>
-  </si>
-  <si>
-    <t>RT @user9 No Duh🤷🏻‍♂️ Who cares</t>
-  </si>
-  <si>
-    <t>This is my fav place 🍜🍲😋 ❤️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT @user31 @user22 @user91  💥UPDATE! 💥 this breaking news just in that </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@user36 @user37 @user38 @user39 @user40 Today!👇👇👇  </t>
-  </si>
-  <si>
     <t>@user2 everyone is so excited to be here at the rally</t>
   </si>
   <si>
@@ -118,7 +118,7 @@
     <t>@user94 barbacoa wit suzm chili sauce! So good. So hot!  🌮🌶🥵you got me tony's tacos!</t>
   </si>
   <si>
-    <t>RT @user19 @user42 @user11 If you here for the rally raise your hands for blue 🤚🔵</t>
+    <t>RT @user19 @user42 @user11 If you here for the rally 🤚🔵 raise your hands for blue 🤚🔵</t>
   </si>
   <si>
     <t>RT @user92 💪hoping he wins 🙏 💪vote red 🙏 💪vote now🙏  🔴</t>
@@ -133,13 +133,13 @@
     <t xml:space="preserve">she is going to rock this today 🔥💥🔥 so proud these days ⭐️❤️⭐️  </t>
   </si>
   <si>
-    <t>RT @user49 Get out the Catholic vote today ✝️ ❤️ Vote Blue!🔵</t>
+    <t>RT @user49 Get out the Catholic  ✝️ ❤️  vote today🔵Vote Blue!🔵</t>
   </si>
   <si>
     <t>Coffee time ☕️🍩@user103</t>
   </si>
   <si>
-    <t>🚨UPDATE! It's all 💩so not happy 😡🥾🐄</t>
+    <t>🚨UPDATE! 🚨 It's all 💩so not happy 😡🥾🐄</t>
   </si>
   <si>
     <t>@user40 @user41 @user42 @user43 @user44 Today!👇👇👇</t>
@@ -157,9 +157,6 @@
     <t>RT @user85 👉🏻👉🏻news report. This just in ….. wins in this district!</t>
   </si>
   <si>
-    <t>🧡💙Let's go panthers!💙🧡</t>
-  </si>
-  <si>
     <t>Lunch time 😋</t>
   </si>
   <si>
@@ -271,7 +268,7 @@
     <t>First snow flakes of the year ❄️☃️ https://www.url.com</t>
   </si>
   <si>
-    <t>Go Blue! ⚾️🔷🔶</t>
+    <t>🔷Go Blue! ⚾️🔷🔶</t>
   </si>
   <si>
     <t>Music list  ✅ swift record ✅ mars single ✅ grande white diamond ✅ west tunes</t>
@@ -307,7 +304,7 @@
     <t>some days 🤷🏼‍♀️</t>
   </si>
   <si>
-    <t>Go orange and blue! @user120 Panthers you can do it 🟠🔵</t>
+    <t xml:space="preserve"> 🟠🔵Go orange and blue! 🟠🔵 @user120 Panthers you can do it 🟠🔵</t>
   </si>
   <si>
     <t>Massive landslide today at the polls! Https://www.url.com</t>
@@ -403,42 +400,42 @@
     <t>Best happy hour! 🍸@user102 http://www.url.com</t>
   </si>
   <si>
-    <t>[('text', 10, ['Show', ' ', 'your', ' ', 'hands', ' ', 'panther', ' ', 'fans', ' ']), ('emoji', 1, ['🤚'])]</t>
+    <t>[('text', 4, ['Show', ' ', 'your', ' ']), ('emoji', 1, ['🤚']), ('text', 6, ['hands', ' ', 'panther', ' ', 'fans', ' ']), ('emoji', 1, ['🤚'])]</t>
   </si>
   <si>
     <t>[('at_mention', 2, ['@user92', '@user14']), ('text', 5, ['so', ' ', 'many', ' ', 'people'])]</t>
   </si>
   <si>
+    <t>[('emoji', 2, ['🧡', '💙']), ('text', 5, ["Let's", ' ', 'go', ' ', 'panthers']), ('punctuation', 1, ['!']), ('emoji', 2, ['💙', '🧡'])]</t>
+  </si>
+  <si>
+    <t>[('text', 1, ['4'])]</t>
+  </si>
+  <si>
+    <t>[('RT', 1, ['RT']), ('at_mention', 3, ['@here', '@there', '@everywhere']), ('hashtag', 2, ['#hashtag', '#emojitest']), ('text', 4, ['is', ' ', 'all', ' ']), ('emoji', 2, ['4️⃣', '❤️']), ('text', 2, ['more', ' ']), ('emoji', 2, ['🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾']), ('text', 5, ['txt', ' ', 'and', ' ', 'more']), ('punctuation', 3, ['!', '!', '!']), ('url', 1, ['https://www.url.com']), ('emoji', 8, ['🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0']), ('url', 1, ['https://www.url.com'])]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[('at_mention', 5, ['@user36', '@user37', '@user38', '@user39', '@user40']), ('text', 1, ['Today']), ('punctuation', 1, ['!']), ('emoji', 3, ['👇', '👇', '👇'])]</t>
+  </si>
+  <si>
+    <t>[('text', 10, ['snowtastrophe', ' ', 'out', ' ', 'there', ' ', 'be', ' ', 'carefulz', ' ']), ('emoji', 2, ['🌨️', '❄️'])]</t>
+  </si>
+  <si>
     <t>[('RT', 1, ['RT']), ('at_mention', 3, ['@user19', '@user42', '@user11']), ('text', 3, ['no', ' ', 'foolin']), ('punctuation', 1, ['!']), ('emoji', 1, ['⬇️']), ('text', 5, ['He’s', ' ', 'not', ' ', 'playing']), ('punctuation', 1, ['. '])]</t>
   </si>
   <si>
-    <t>[('text', 1, ['4'])]</t>
-  </si>
-  <si>
-    <t>[('RT', 1, ['RT']), ('at_mention', 3, ['@here', '@there', '@everywhere']), ('hashtag', 2, ['#hashtag', '#emojitest']), ('text', 4, ['is', ' ', 'all', ' ']), ('emoji', 2, ['4️⃣', '❤️']), ('text', 2, ['more', ' ']), ('emoji', 2, ['🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾']), ('text', 5, ['txt', ' ', 'and', ' ', 'more']), ('punctuation', 3, ['!', '!', '!']), ('url', 1, ['https://www.url.com']), ('emoji', 8, ['🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0']), ('url', 1, ['https://www.url.com'])]</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>[('text', 10, ['This', ' ', 'is', ' ', 'my', ' ', 'fav', ' ', 'place', ' ']), ('emoji', 4, ['🍜', '🍲', '😋', '❤️'])]</t>
+  </si>
+  <si>
+    <t>[('RT', 1, ['RT']), ('at_mention', 3, ['@user31', '@user22', '@user91']), ('emoji', 1, ['💥']), ('text', 1, ['UPDATE']), ('punctuation', 1, ['!']), ('emoji', 1, ['💥']), ('text', 12, ['this', ' ', 'breaking', ' ', 'news', ' ', 'just', ' ', 'in', ' ', 'that', ' '])]</t>
   </si>
   <si>
     <t>[('text', 7, ['Time', ' ', 'for', ' ', 'happy', ' ', 'hour']), ('punctuation', 1, ['!']), ('text', 6, ['Going', ' ', 'to', ' ', "Rossi's", ' ']), ('at_mention', 1, ['@user103']), ('url', 1, ['https://www.url.com'])]</t>
   </si>
   <si>
-    <t>[('text', 10, ['snowtastrophe', ' ', 'out', ' ', 'there', ' ', 'be', ' ', 'carefulz', ' ']), ('emoji', 2, ['🌨️', '❄️'])]</t>
-  </si>
-  <si>
-    <t>[('RT', 1, ['RT']), ('at_mention', 1, ['@user9']), ('text', 3, ['No', ' ', 'Duh']), ('emoji', 1, ['🤷🏻\u200d♂️']), ('text', 3, ['Who', ' ', 'cares'])]</t>
-  </si>
-  <si>
-    <t>[('text', 10, ['This', ' ', 'is', ' ', 'my', ' ', 'fav', ' ', 'place', ' ']), ('emoji', 4, ['🍜', '🍲', '😋', '❤️'])]</t>
-  </si>
-  <si>
-    <t>[('RT', 1, ['RT']), ('at_mention', 3, ['@user31', '@user22', '@user91']), ('emoji', 1, ['💥']), ('text', 1, ['UPDATE']), ('punctuation', 1, ['!']), ('emoji', 1, ['💥']), ('text', 12, ['this', ' ', 'breaking', ' ', 'news', ' ', 'just', ' ', 'in', ' ', 'that', ' '])]</t>
-  </si>
-  <si>
-    <t>[('at_mention', 5, ['@user36', '@user37', '@user38', '@user39', '@user40']), ('text', 1, ['Today']), ('punctuation', 1, ['!']), ('emoji', 3, ['👇', '👇', '👇'])]</t>
-  </si>
-  <si>
     <t>[('at_mention', 1, ['@user2']), ('text', 19, ['everyone', ' ', 'is', ' ', 'so', ' ', 'excited', ' ', 'to', ' ', 'be', ' ', 'here', ' ', 'at', ' ', 'the', ' ', 'rally'])]</t>
   </si>
   <si>
@@ -472,7 +469,7 @@
     <t>[('at_mention', 1, ['@user94']), ('text', 9, ['barbacoa', ' ', 'wit', ' ', 'suzm', ' ', 'chili', ' ', 'sauce']), ('punctuation', 1, ['!']), ('text', 3, ['So', ' ', 'good']), ('punctuation', 1, ['. ']), ('text', 3, ['So', ' ', 'hot']), ('punctuation', 1, ['!']), ('emoji', 3, ['🌮', '🌶️', '🥵']), ('text', 9, ['you', ' ', 'got', ' ', 'me', ' ', "tony's", ' ', 'tacos']), ('punctuation', 1, ['!'])]</t>
   </si>
   <si>
-    <t>[('RT', 1, ['RT']), ('at_mention', 3, ['@user19', '@user42', '@user11']), ('text', 22, ['If', ' ', 'you', ' ', 'here', ' ', 'for', ' ', 'the', ' ', 'rally', ' ', 'raise', ' ', 'your', ' ', 'hands', ' ', 'for', ' ', 'blue', ' ']), ('emoji', 2, ['🤚', '🔵'])]</t>
+    <t>[('RT', 1, ['RT']), ('at_mention', 3, ['@user19', '@user42', '@user11']), ('text', 12, ['If', ' ', 'you', ' ', 'here', ' ', 'for', ' ', 'the', ' ', 'rally', ' ']), ('emoji', 2, ['🤚', '🔵']), ('text', 10, ['raise', ' ', 'your', ' ', 'hands', ' ', 'for', ' ', 'blue', ' ']), ('emoji', 2, ['🤚', '🔵'])]</t>
   </si>
   <si>
     <t>[('RT', 1, ['RT']), ('at_mention', 1, ['@user92']), ('emoji', 1, ['💪']), ('text', 6, ['hoping', ' ', 'he', ' ', 'wins', ' ']), ('emoji', 2, ['🙏', '💪']), ('text', 4, ['vote', ' ', 'red', ' ']), ('emoji', 2, ['🙏', '💪']), ('text', 3, ['vote', ' ', 'now']), ('emoji', 2, ['🙏', '🔴'])]</t>
@@ -487,13 +484,13 @@
     <t>[('text', 14, ['she', ' ', 'is', ' ', 'going', ' ', 'to', ' ', 'rock', ' ', 'this', ' ', 'today', ' ']), ('emoji', 3, ['🔥', '💥', '🔥']), ('text', 8, ['so', ' ', 'proud', ' ', 'these', ' ', 'days', ' ']), ('emoji', 3, ['⭐', '❤️', '⭐'])]</t>
   </si>
   <si>
-    <t>[('RT', 1, ['RT']), ('at_mention', 1, ['@user49']), ('text', 12, ['Get', ' ', 'out', ' ', 'the', ' ', 'Catholic', ' ', 'vote', ' ', 'today', ' ']), ('emoji', 2, ['✝️', '❤️']), ('text', 3, ['Vote', ' ', 'Blue']), ('punctuation', 1, ['!']), ('emoji', 1, ['🔵'])]</t>
+    <t>[('RT', 1, ['RT']), ('at_mention', 1, ['@user49']), ('text', 9, ['Get', ' ', 'out', ' ', 'the', ' ', 'Catholic', ' ', ' ']), ('emoji', 2, ['✝️', '❤️']), ('text', 3, ['vote', ' ', 'today']), ('emoji', 1, ['🔵']), ('text', 3, ['Vote', ' ', 'Blue']), ('punctuation', 1, ['!']), ('emoji', 1, ['🔵'])]</t>
   </si>
   <si>
     <t>[('text', 4, ['Coffee', ' ', 'time', ' ']), ('emoji', 2, ['☕', '🍩']), ('at_mention', 1, ['@user103'])]</t>
   </si>
   <si>
-    <t>[('emoji', 1, ['🚨']), ('text', 1, ['UPDATE']), ('punctuation', 1, ['!']), ('text', 4, ["It's", ' ', 'all', ' ']), ('emoji', 1, ['💩']), ('text', 6, ['so', ' ', 'not', ' ', 'happy', ' ']), ('emoji', 3, ['😡', '🥾', '🐄'])]</t>
+    <t>[('emoji', 1, ['🚨']), ('text', 1, ['UPDATE']), ('punctuation', 1, ['!']), ('emoji', 1, ['🚨']), ('text', 4, ["It's", ' ', 'all', ' ']), ('emoji', 1, ['💩']), ('text', 6, ['so', ' ', 'not', ' ', 'happy', ' ']), ('emoji', 3, ['😡', '🥾', '🐄'])]</t>
   </si>
   <si>
     <t>[('at_mention', 5, ['@user40', '@user41', '@user42', '@user43', '@user44']), ('text', 1, ['Today']), ('punctuation', 1, ['!']), ('emoji', 3, ['👇', '👇', '👇'])]</t>
@@ -511,9 +508,6 @@
     <t>[('RT', 1, ['RT']), ('at_mention', 1, ['@user85']), ('emoji', 2, ['👉🏻', '👉🏻']), ('text', 3, ['news', ' ', 'report']), ('punctuation', 1, ['. ']), ('text', 7, ['This', ' ', 'just', ' ', 'in', ' ', '….']), ('punctuation', 1, ['. ']), ('text', 7, ['wins', ' ', 'in', ' ', 'this', ' ', 'district']), ('punctuation', 1, ['!'])]</t>
   </si>
   <si>
-    <t>[('emoji', 2, ['🧡', '💙']), ('text', 5, ["Let's", ' ', 'go', ' ', 'panthers']), ('punctuation', 1, ['!']), ('emoji', 2, ['💙', '🧡'])]</t>
-  </si>
-  <si>
     <t>[('text', 4, ['Lunch', ' ', 'time', ' ']), ('emoji', 1, ['😋'])]</t>
   </si>
   <si>
@@ -625,7 +619,7 @@
     <t>[('text', 12, ['First', ' ', 'snow', ' ', 'flakes', ' ', 'of', ' ', 'the', ' ', 'year', ' ']), ('emoji', 2, ['❄️', '☃️']), ('url', 1, ['https://www.url.com'])]</t>
   </si>
   <si>
-    <t>[('text', 3, ['Go', ' ', 'Blue']), ('punctuation', 1, ['!']), ('emoji', 3, ['⚾', '🔷', '🔶'])]</t>
+    <t>[('emoji', 1, ['🔷']), ('text', 3, ['Go', ' ', 'Blue']), ('punctuation', 1, ['!']), ('emoji', 3, ['⚾', '🔷', '🔶'])]</t>
   </si>
   <si>
     <t>[('text', 5, ['Music', ' ', 'list', ' ', ' ']), ('emoji', 1, ['✅']), ('text', 4, ['swift', ' ', 'record', ' ']), ('emoji', 1, ['✅']), ('text', 4, ['mars', ' ', 'single', ' ']), ('emoji', 1, ['✅']), ('text', 6, ['grande', ' ', 'white', ' ', 'diamond', ' ']), ('emoji', 1, ['✅']), ('text', 3, ['west', ' ', 'tunes'])]</t>
@@ -661,7 +655,7 @@
     <t>[('text', 4, ['some', ' ', 'days', ' ']), ('emoji', 1, ['🤷🏼\u200d♀️'])]</t>
   </si>
   <si>
-    <t>[('text', 7, ['Go', ' ', 'orange', ' ', 'and', ' ', 'blue']), ('punctuation', 1, ['!']), ('at_mention', 1, ['@user120']), ('text', 10, ['Panthers', ' ', 'you', ' ', 'can', ' ', 'do', ' ', 'it', ' ']), ('emoji', 2, ['\U0001f7e0', '🔵'])]</t>
+    <t>[('emoji', 2, ['\U0001f7e0', '🔵']), ('text', 7, ['Go', ' ', 'orange', ' ', 'and', ' ', 'blue']), ('punctuation', 1, ['!']), ('emoji', 2, ['\U0001f7e0', '🔵']), ('at_mention', 1, ['@user120']), ('text', 10, ['Panthers', ' ', 'you', ' ', 'can', ' ', 'do', ' ', 'it', ' ']), ('emoji', 2, ['\U0001f7e0', '🔵'])]</t>
   </si>
   <si>
     <t>[('text', 11, ['Massive', ' ', 'landslide', ' ', 'today', ' ', 'at', ' ', 'the', ' ', 'polls']), ('punctuation', 1, ['!']), ('text', 1, ['Https://www.url.com'])]</t>
@@ -757,39 +751,39 @@
     <t>[('text', 5, ['Best', ' ', 'happy', ' ', 'hour']), ('punctuation', 1, ['!']), ('emoji', 1, ['🍸']), ('at_mention', 1, ['@user102']), ('url', 1, ['http://www.url.com'])]</t>
   </si>
   <si>
-    <t>[('text', 10), ('emoji', 1)]</t>
+    <t>[('text', 4), ('emoji', 1), ('text', 6), ('emoji', 1)]</t>
   </si>
   <si>
     <t>[('at_mention', 2), ('text', 5)]</t>
   </si>
   <si>
+    <t>[('emoji', 2), ('text', 5), ('punctuation', 1), ('emoji', 2)]</t>
+  </si>
+  <si>
+    <t>[('text', 1)]</t>
+  </si>
+  <si>
+    <t>[('RT', 1), ('at_mention', 3), ('hashtag', 2), ('text', 4), ('emoji', 2), ('text', 2), ('emoji', 2), ('text', 5), ('punctuation', 3), ('url', 1), ('emoji', 8), ('url', 1)]</t>
+  </si>
+  <si>
+    <t>[('at_mention', 5), ('text', 1), ('punctuation', 1), ('emoji', 3)]</t>
+  </si>
+  <si>
+    <t>[('text', 10), ('emoji', 2)]</t>
+  </si>
+  <si>
     <t>[('RT', 1), ('at_mention', 3), ('text', 3), ('punctuation', 1), ('emoji', 1), ('text', 5), ('punctuation', 1)]</t>
   </si>
   <si>
-    <t>[('text', 1)]</t>
-  </si>
-  <si>
-    <t>[('RT', 1), ('at_mention', 3), ('hashtag', 2), ('text', 4), ('emoji', 2), ('text', 2), ('emoji', 2), ('text', 5), ('punctuation', 3), ('url', 1), ('emoji', 8), ('url', 1)]</t>
+    <t>[('text', 10), ('emoji', 4)]</t>
+  </si>
+  <si>
+    <t>[('RT', 1), ('at_mention', 3), ('emoji', 1), ('text', 1), ('punctuation', 1), ('emoji', 1), ('text', 12)]</t>
   </si>
   <si>
     <t>[('text', 7), ('punctuation', 1), ('text', 6), ('at_mention', 1), ('url', 1)]</t>
   </si>
   <si>
-    <t>[('text', 10), ('emoji', 2)]</t>
-  </si>
-  <si>
-    <t>[('RT', 1), ('at_mention', 1), ('text', 3), ('emoji', 1), ('text', 3)]</t>
-  </si>
-  <si>
-    <t>[('text', 10), ('emoji', 4)]</t>
-  </si>
-  <si>
-    <t>[('RT', 1), ('at_mention', 3), ('emoji', 1), ('text', 1), ('punctuation', 1), ('emoji', 1), ('text', 12)]</t>
-  </si>
-  <si>
-    <t>[('at_mention', 5), ('text', 1), ('punctuation', 1), ('emoji', 3)]</t>
-  </si>
-  <si>
     <t>[('at_mention', 1), ('text', 19)]</t>
   </si>
   <si>
@@ -823,7 +817,7 @@
     <t>[('at_mention', 1), ('text', 9), ('punctuation', 1), ('text', 3), ('punctuation', 1), ('text', 3), ('punctuation', 1), ('emoji', 3), ('text', 9), ('punctuation', 1)]</t>
   </si>
   <si>
-    <t>[('RT', 1), ('at_mention', 3), ('text', 22), ('emoji', 2)]</t>
+    <t>[('RT', 1), ('at_mention', 3), ('text', 12), ('emoji', 2), ('text', 10), ('emoji', 2)]</t>
   </si>
   <si>
     <t>[('RT', 1), ('at_mention', 1), ('emoji', 1), ('text', 6), ('emoji', 2), ('text', 4), ('emoji', 2), ('text', 3), ('emoji', 2)]</t>
@@ -838,13 +832,13 @@
     <t>[('text', 14), ('emoji', 3), ('text', 8), ('emoji', 3)]</t>
   </si>
   <si>
-    <t>[('RT', 1), ('at_mention', 1), ('text', 12), ('emoji', 2), ('text', 3), ('punctuation', 1), ('emoji', 1)]</t>
+    <t>[('RT', 1), ('at_mention', 1), ('text', 9), ('emoji', 2), ('text', 3), ('emoji', 1), ('text', 3), ('punctuation', 1), ('emoji', 1)]</t>
   </si>
   <si>
     <t>[('text', 4), ('emoji', 2), ('at_mention', 1)]</t>
   </si>
   <si>
-    <t>[('emoji', 1), ('text', 1), ('punctuation', 1), ('text', 4), ('emoji', 1), ('text', 6), ('emoji', 3)]</t>
+    <t>[('emoji', 1), ('text', 1), ('punctuation', 1), ('emoji', 1), ('text', 4), ('emoji', 1), ('text', 6), ('emoji', 3)]</t>
   </si>
   <si>
     <t>[('text', 11), ('punctuation', 1), ('emoji', 3)]</t>
@@ -859,9 +853,6 @@
     <t>[('RT', 1), ('at_mention', 1), ('emoji', 2), ('text', 3), ('punctuation', 1), ('text', 7), ('punctuation', 1), ('text', 7), ('punctuation', 1)]</t>
   </si>
   <si>
-    <t>[('emoji', 2), ('text', 5), ('punctuation', 1), ('emoji', 2)]</t>
-  </si>
-  <si>
     <t>[('text', 4), ('emoji', 1)]</t>
   </si>
   <si>
@@ -970,7 +961,7 @@
     <t>[('text', 12), ('emoji', 2), ('url', 1)]</t>
   </si>
   <si>
-    <t>[('text', 3), ('punctuation', 1), ('emoji', 3)]</t>
+    <t>[('emoji', 1), ('text', 3), ('punctuation', 1), ('emoji', 3)]</t>
   </si>
   <si>
     <t>[('text', 5), ('emoji', 1), ('text', 4), ('emoji', 1), ('text', 4), ('emoji', 1), ('text', 6), ('emoji', 1), ('text', 3)]</t>
@@ -994,7 +985,7 @@
     <t>[('text', 6), ('emoji', 1)]</t>
   </si>
   <si>
-    <t>[('text', 7), ('punctuation', 1), ('at_mention', 1), ('text', 10), ('emoji', 2)]</t>
+    <t>[('emoji', 2), ('text', 7), ('punctuation', 1), ('emoji', 2), ('at_mention', 1), ('text', 10), ('emoji', 2)]</t>
   </si>
   <si>
     <t>[('text', 11), ('punctuation', 1), ('text', 1)]</t>
@@ -1084,114 +1075,114 @@
     <t>[('text', 5), ('punctuation', 1), ('emoji', 1), ('at_mention', 1), ('url', 1)]</t>
   </si>
   <si>
+    <t>['text', 'emoji', 'text', 'emoji']</t>
+  </si>
+  <si>
+    <t>['at_mention', 'text']</t>
+  </si>
+  <si>
+    <t>['emoji', 'text', 'punctuation', 'emoji']</t>
+  </si>
+  <si>
+    <t>['text']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'hashtag', 'text', 'emoji', 'text', 'emoji', 'text', 'punctuation', 'url', 'emoji', 'url']</t>
+  </si>
+  <si>
+    <t>['at_mention', 'text', 'punctuation', 'emoji']</t>
+  </si>
+  <si>
     <t>['text', 'emoji']</t>
   </si>
   <si>
-    <t>['at_mention', 'text']</t>
-  </si>
-  <si>
     <t>['RT', 'at_mention', 'text', 'punctuation', 'emoji', 'text', 'punctuation']</t>
   </si>
   <si>
-    <t>['text']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'hashtag', 'text', 'emoji', 'text', 'emoji', 'text', 'punctuation', 'url', 'emoji', 'url']</t>
+    <t>['RT', 'at_mention', 'emoji', 'text', 'punctuation', 'emoji', 'text']</t>
   </si>
   <si>
     <t>['text', 'punctuation', 'text', 'at_mention', 'url']</t>
   </si>
   <si>
+    <t>['emoji', 'text']</t>
+  </si>
+  <si>
+    <t>['text', 'punctuation', 'text']</t>
+  </si>
+  <si>
+    <t>['emoji', 'text', 'punctuation', 'text', 'punctuation', 'text', 'emoji', 'url']</t>
+  </si>
+  <si>
+    <t>['at_mention', 'text', 'emoji', 'at_mention']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'text', 'emoji', 'text', 'punctuation']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'emoji']</t>
+  </si>
+  <si>
+    <t>['text', 'at_mention', 'text', 'emoji', 'url']</t>
+  </si>
+  <si>
+    <t>['text', 'emoji', 'text', 'url', 'at_mention']</t>
+  </si>
+  <si>
+    <t>['at_mention', 'text', 'punctuation', 'text', 'punctuation', 'text', 'punctuation', 'emoji', 'text', 'punctuation']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'text', 'emoji', 'text', 'emoji']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'emoji', 'text', 'emoji', 'text', 'emoji', 'text', 'emoji']</t>
+  </si>
+  <si>
+    <t>['at_mention', 'text', 'punctuation']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'emoji', 'text', 'emoji', 'text']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'text', 'emoji', 'text', 'emoji', 'text', 'punctuation', 'emoji']</t>
+  </si>
+  <si>
+    <t>['text', 'emoji', 'at_mention']</t>
+  </si>
+  <si>
+    <t>['emoji', 'text', 'punctuation', 'emoji', 'text', 'emoji', 'text', 'emoji']</t>
+  </si>
+  <si>
+    <t>['text', 'punctuation', 'emoji']</t>
+  </si>
+  <si>
+    <t>['emoji', 'text', 'punctuation', 'text']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'emoji', 'text', 'punctuation', 'text', 'punctuation', 'text', 'punctuation']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'text']</t>
+  </si>
+  <si>
+    <t>['text', 'punctuation', 'url']</t>
+  </si>
+  <si>
+    <t>['text', 'punctuation', 'text', 'punctuation']</t>
+  </si>
+  <si>
+    <t>['emoji', 'text', 'punctuation', 'emoji', 'text']</t>
+  </si>
+  <si>
+    <t>['at_mention', 'emoji', 'text', 'punctuation']</t>
+  </si>
+  <si>
+    <t>['RT', 'at_mention', 'emoji', 'text', 'punctuation', 'text', 'emoji']</t>
+  </si>
+  <si>
     <t>['RT', 'at_mention', 'text', 'emoji', 'text']</t>
   </si>
   <si>
-    <t>['RT', 'at_mention', 'emoji', 'text', 'punctuation', 'emoji', 'text']</t>
-  </si>
-  <si>
-    <t>['at_mention', 'text', 'punctuation', 'emoji']</t>
-  </si>
-  <si>
-    <t>['emoji', 'text']</t>
-  </si>
-  <si>
-    <t>['text', 'punctuation', 'text']</t>
-  </si>
-  <si>
-    <t>['emoji', 'text', 'punctuation', 'text', 'punctuation', 'text', 'emoji', 'url']</t>
-  </si>
-  <si>
-    <t>['at_mention', 'text', 'emoji', 'at_mention']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'text', 'emoji', 'text', 'punctuation']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'emoji']</t>
-  </si>
-  <si>
-    <t>['text', 'at_mention', 'text', 'emoji', 'url']</t>
-  </si>
-  <si>
-    <t>['text', 'emoji', 'text', 'url', 'at_mention']</t>
-  </si>
-  <si>
-    <t>['at_mention', 'text', 'punctuation', 'text', 'punctuation', 'text', 'punctuation', 'emoji', 'text', 'punctuation']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'text', 'emoji']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'emoji', 'text', 'emoji', 'text', 'emoji', 'text', 'emoji']</t>
-  </si>
-  <si>
-    <t>['at_mention', 'text', 'punctuation']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'emoji', 'text', 'emoji', 'text']</t>
-  </si>
-  <si>
-    <t>['text', 'emoji', 'text', 'emoji']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'text', 'emoji', 'text', 'punctuation', 'emoji']</t>
-  </si>
-  <si>
-    <t>['text', 'emoji', 'at_mention']</t>
-  </si>
-  <si>
-    <t>['emoji', 'text', 'punctuation', 'text', 'emoji', 'text', 'emoji']</t>
-  </si>
-  <si>
-    <t>['text', 'punctuation', 'emoji']</t>
-  </si>
-  <si>
-    <t>['emoji', 'text', 'punctuation', 'text']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'emoji', 'text', 'punctuation', 'text', 'punctuation', 'text', 'punctuation']</t>
-  </si>
-  <si>
-    <t>['emoji', 'text', 'punctuation', 'emoji']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'text']</t>
-  </si>
-  <si>
-    <t>['text', 'punctuation', 'url']</t>
-  </si>
-  <si>
-    <t>['text', 'punctuation', 'text', 'punctuation']</t>
-  </si>
-  <si>
-    <t>['emoji', 'text', 'punctuation', 'emoji', 'text']</t>
-  </si>
-  <si>
-    <t>['at_mention', 'emoji', 'text', 'punctuation']</t>
-  </si>
-  <si>
-    <t>['RT', 'at_mention', 'emoji', 'text', 'punctuation', 'text', 'emoji']</t>
-  </si>
-  <si>
     <t>['text', 'punctuation', 'text', 'emoji', 'url']</t>
   </si>
   <si>
@@ -1228,9 +1219,6 @@
     <t>['text', 'punctuation', 'at_mention', 'text', 'emoji']</t>
   </si>
   <si>
-    <t>['RT', 'at_mention', 'text', 'emoji', 'text', 'emoji']</t>
-  </si>
-  <si>
     <t>['text', 'emoji', 'text', 'emoji', 'text', 'emoji', 'text', 'emoji', 'text']</t>
   </si>
   <si>
@@ -1243,6 +1231,9 @@
     <t>['RT', 'at_mention', 'emoji', 'text', 'emoji', 'text', 'emoji', 'text', 'url']</t>
   </si>
   <si>
+    <t>['emoji', 'text', 'punctuation', 'emoji', 'at_mention', 'text', 'emoji']</t>
+  </si>
+  <si>
     <t>['text', 'at_mention', 'emoji', 'text', 'punctuation']</t>
   </si>
   <si>
@@ -1291,30 +1282,30 @@
     <t>[('@user92', '@user14')]</t>
   </si>
   <si>
+    <t>[('@here', '@there', '@everywhere')]</t>
+  </si>
+  <si>
+    <t>[('@user36', '@user37', '@user38', '@user39', '@user40')]</t>
+  </si>
+  <si>
     <t>[('@user19', '@user42', '@user11')]</t>
   </si>
   <si>
-    <t>[('@here', '@there', '@everywhere')]</t>
+    <t>[('@user31', '@user22', '@user91')]</t>
   </si>
   <si>
     <t>[('@user103',)]</t>
   </si>
   <si>
+    <t>[('@user2',)]</t>
+  </si>
+  <si>
+    <t>[('@user54',), ('@user92',)]</t>
+  </si>
+  <si>
     <t>[('@user9',)]</t>
   </si>
   <si>
-    <t>[('@user31', '@user22', '@user91')]</t>
-  </si>
-  <si>
-    <t>[('@user36', '@user37', '@user38', '@user39', '@user40')]</t>
-  </si>
-  <si>
-    <t>[('@user2',)]</t>
-  </si>
-  <si>
-    <t>[('@user54',), ('@user92',)]</t>
-  </si>
-  <si>
     <t>[('@user86',)]</t>
   </si>
   <si>
@@ -1390,30 +1381,30 @@
     <t>[('@user89',)]</t>
   </si>
   <si>
-    <t>[('🤚',)]</t>
+    <t>[('🤚',), ('🤚',)]</t>
+  </si>
+  <si>
+    <t>[('🧡', '💙'), ('💙', '🧡')]</t>
+  </si>
+  <si>
+    <t>[('4️⃣', '❤️'), ('🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾'), ('🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0')]</t>
+  </si>
+  <si>
+    <t>[('👇', '👇', '👇')]</t>
+  </si>
+  <si>
+    <t>[('🌨️', '❄️')]</t>
   </si>
   <si>
     <t>[('⬇️',)]</t>
   </si>
   <si>
-    <t>[('4️⃣', '❤️'), ('🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾'), ('🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0')]</t>
-  </si>
-  <si>
-    <t>[('🌨️', '❄️')]</t>
-  </si>
-  <si>
-    <t>[('🤷🏻\u200d♂️',)]</t>
-  </si>
-  <si>
     <t>[('🍜', '🍲', '😋', '❤️')]</t>
   </si>
   <si>
     <t>[('💥',), ('💥',)]</t>
   </si>
   <si>
-    <t>[('👇', '👇', '👇')]</t>
-  </si>
-  <si>
     <t>[('☺️',)]</t>
   </si>
   <si>
@@ -1438,7 +1429,7 @@
     <t>[('🌮', '🌶️', '🥵')]</t>
   </si>
   <si>
-    <t>[('🤚', '🔵')]</t>
+    <t>[('🤚', '🔵'), ('🤚', '🔵')]</t>
   </si>
   <si>
     <t>[('💪',), ('🙏', '💪'), ('🙏', '💪'), ('🙏', '🔴')]</t>
@@ -1450,13 +1441,13 @@
     <t>[('🔥', '💥', '🔥'), ('⭐', '❤️', '⭐')]</t>
   </si>
   <si>
-    <t>[('✝️', '❤️'), ('🔵',)]</t>
+    <t>[('✝️', '❤️'), ('🔵',), ('🔵',)]</t>
   </si>
   <si>
     <t>[('☕', '🍩')]</t>
   </si>
   <si>
-    <t>[('🚨',), ('💩',), ('😡', '🥾', '🐄')]</t>
+    <t>[('🚨',), ('🚨',), ('💩',), ('😡', '🥾', '🐄')]</t>
   </si>
   <si>
     <t>[('🍻', '🥂', '🎉')]</t>
@@ -1471,9 +1462,6 @@
     <t>[('👉🏻', '👉🏻')]</t>
   </si>
   <si>
-    <t>[('🧡', '💙'), ('💙', '🧡')]</t>
-  </si>
-  <si>
     <t>[('😋',)]</t>
   </si>
   <si>
@@ -1543,7 +1531,7 @@
     <t>[('❄️', '☃️')]</t>
   </si>
   <si>
-    <t>[('⚾', '🔷', '🔶')]</t>
+    <t>[('🔷',), ('⚾', '🔷', '🔶')]</t>
   </si>
   <si>
     <t>[('✅',), ('✅',), ('✅',), ('✅',)]</t>
@@ -1570,7 +1558,7 @@
     <t>[('🤷🏼\u200d♀️',)]</t>
   </si>
   <si>
-    <t>[('\U0001f7e0', '🔵')]</t>
+    <t>[('\U0001f7e0', '🔵'), ('\U0001f7e0', '🔵'), ('\U0001f7e0', '🔵')]</t>
   </si>
   <si>
     <t>[('🤔',)]</t>
@@ -1651,30 +1639,30 @@
     <t>[('http://www.url.com', 'http://www.url.com'), ('http://www.url.com',)]</t>
   </si>
   <si>
-    <t>[['🤚']]</t>
+    <t>[['🤚'], ['🤚']]</t>
+  </si>
+  <si>
+    <t>[['🧡', '💙'], ['💙', '🧡']]</t>
+  </si>
+  <si>
+    <t>[['4️⃣', '❤️'], ['🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾'], ['🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0']]</t>
+  </si>
+  <si>
+    <t>[['👇', '👇', '👇']]</t>
+  </si>
+  <si>
+    <t>[['🌨️', '❄️']]</t>
   </si>
   <si>
     <t>[['⬇️']]</t>
   </si>
   <si>
-    <t>[['4️⃣', '❤️'], ['🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾'], ['🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0']]</t>
-  </si>
-  <si>
-    <t>[['🌨️', '❄️']]</t>
-  </si>
-  <si>
-    <t>[['🤷🏻\u200d♂️']]</t>
-  </si>
-  <si>
     <t>[['🍜', '🍲', '😋', '❤️']]</t>
   </si>
   <si>
     <t>[['💥'], ['💥']]</t>
   </si>
   <si>
-    <t>[['👇', '👇', '👇']]</t>
-  </si>
-  <si>
     <t>[['☺️']]</t>
   </si>
   <si>
@@ -1699,7 +1687,7 @@
     <t>[['🌮', '🌶️', '🥵']]</t>
   </si>
   <si>
-    <t>[['🤚', '🔵']]</t>
+    <t>[['🤚', '🔵'], ['🤚', '🔵']]</t>
   </si>
   <si>
     <t>[['💪'], ['🙏', '💪'], ['🙏', '💪'], ['🙏', '🔴']]</t>
@@ -1711,13 +1699,13 @@
     <t>[['🔥', '💥', '🔥'], ['⭐', '❤️', '⭐']]</t>
   </si>
   <si>
-    <t>[['✝️', '❤️'], ['🔵']]</t>
+    <t>[['✝️', '❤️'], ['🔵'], ['🔵']]</t>
   </si>
   <si>
     <t>[['☕', '🍩']]</t>
   </si>
   <si>
-    <t>[['🚨'], ['💩'], ['😡', '🥾', '🐄']]</t>
+    <t>[['🚨'], ['🚨'], ['💩'], ['😡', '🥾', '🐄']]</t>
   </si>
   <si>
     <t>[['🍻', '🥂', '🎉']]</t>
@@ -1732,9 +1720,6 @@
     <t>[['👉🏻', '👉🏻']]</t>
   </si>
   <si>
-    <t>[['🧡', '💙'], ['💙', '🧡']]</t>
-  </si>
-  <si>
     <t>[['😋']]</t>
   </si>
   <si>
@@ -1804,7 +1789,7 @@
     <t>[['❄️', '☃️']]</t>
   </si>
   <si>
-    <t>[['⚾', '🔷', '🔶']]</t>
+    <t>[['🔷'], ['⚾', '🔷', '🔶']]</t>
   </si>
   <si>
     <t>[['✅'], ['✅'], ['✅'], ['✅']]</t>
@@ -1831,7 +1816,7 @@
     <t>[['🤷🏼\u200d♀️']]</t>
   </si>
   <si>
-    <t>[['\U0001f7e0', '🔵']]</t>
+    <t>[['\U0001f7e0', '🔵'], ['\U0001f7e0', '🔵'], ['\U0001f7e0', '🔵']]</t>
   </si>
   <si>
     <t>[['🤔']]</t>
@@ -1900,285 +1885,291 @@
     <t>[['🍸']]</t>
   </si>
   <si>
+    <t>['🤚', '🤚']</t>
+  </si>
+  <si>
+    <t>['🧡', '💙', '💙', '🧡']</t>
+  </si>
+  <si>
+    <t>['4️⃣', '❤️', '🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0']</t>
+  </si>
+  <si>
+    <t>['👇', '👇', '👇']</t>
+  </si>
+  <si>
+    <t>['🌨️', '❄️']</t>
+  </si>
+  <si>
+    <t>['⬇️']</t>
+  </si>
+  <si>
+    <t>['🍜', '🍲', '😋', '❤️']</t>
+  </si>
+  <si>
+    <t>['💥', '💥']</t>
+  </si>
+  <si>
+    <t>['☺️']</t>
+  </si>
+  <si>
+    <t>['😠', '📍']</t>
+  </si>
+  <si>
+    <t>['⚽', '🏃🏾\u200d♂️']</t>
+  </si>
+  <si>
+    <t>['🤣']</t>
+  </si>
+  <si>
+    <t>['🙄']</t>
+  </si>
+  <si>
+    <t>['🏔️', '🌲', '🌳']</t>
+  </si>
+  <si>
+    <t>['👉']</t>
+  </si>
+  <si>
+    <t>['🌮', '🌶️', '🥵']</t>
+  </si>
+  <si>
+    <t>['🤚', '🔵', '🤚', '🔵']</t>
+  </si>
+  <si>
+    <t>['💪', '🙏', '💪', '🙏', '💪', '🙏', '🔴']</t>
+  </si>
+  <si>
+    <t>['🚨', '🚨']</t>
+  </si>
+  <si>
+    <t>['🔥', '💥', '🔥', '⭐', '❤️', '⭐']</t>
+  </si>
+  <si>
+    <t>['✝️', '❤️', '🔵', '🔵']</t>
+  </si>
+  <si>
+    <t>['☕', '🍩']</t>
+  </si>
+  <si>
+    <t>['🚨', '🚨', '💩', '😡', '🥾', '🐄']</t>
+  </si>
+  <si>
+    <t>['🍻', '🥂', '🎉']</t>
+  </si>
+  <si>
+    <t>['🌅']</t>
+  </si>
+  <si>
+    <t>['💨', '💨', '🤔', '🤔', '🤔']</t>
+  </si>
+  <si>
+    <t>['👉🏻', '👉🏻']</t>
+  </si>
+  <si>
+    <t>['😋']</t>
+  </si>
+  <si>
+    <t>['👠', '👠']</t>
+  </si>
+  <si>
+    <t>['👩🏽\u200d💻', '🍿', '👀']</t>
+  </si>
+  <si>
+    <t>['😍', '🤩', '😍', '🤪']</t>
+  </si>
+  <si>
+    <t>['🌹', '🌹', '🌹', '🌹']</t>
+  </si>
+  <si>
+    <t>['😔', '📚', '👎🏻']</t>
+  </si>
+  <si>
+    <t>['😂']</t>
+  </si>
+  <si>
+    <t>['🎶']</t>
+  </si>
+  <si>
+    <t>['🔁', '📡', '🔊', '🔊']</t>
+  </si>
+  <si>
+    <t>['🤭', '🤭', '🤭']</t>
+  </si>
+  <si>
+    <t>['✈️', '🏖️', '🏝️', '🏊\u200d♀️', '🌞', '🌞']</t>
+  </si>
+  <si>
+    <t>['💯']</t>
+  </si>
+  <si>
+    <t>['😘']</t>
+  </si>
+  <si>
+    <t>['😍', '😍']</t>
+  </si>
+  <si>
+    <t>['😆', '🇺🇸', '🇺🇸', '⬇️']</t>
+  </si>
+  <si>
+    <t>['💐', '🌷', '🌸', '🌹', '🌻']</t>
+  </si>
+  <si>
+    <t>['🤬', '🤬', '🤬']</t>
+  </si>
+  <si>
+    <t>['☑️', '🙌']</t>
+  </si>
+  <si>
+    <t>['👏🏼']</t>
+  </si>
+  <si>
+    <t>['❤️', '🥰', '😘']</t>
+  </si>
+  <si>
+    <t>['🍉', '🧁']</t>
+  </si>
+  <si>
+    <t>['🔵', '👉🏽', '👉🏾', '🗳️']</t>
+  </si>
+  <si>
+    <t>['❄️', '☃️']</t>
+  </si>
+  <si>
+    <t>['🔷', '⚾', '🔷', '🔶']</t>
+  </si>
+  <si>
+    <t>['✅', '✅', '✅', '✅']</t>
+  </si>
+  <si>
+    <t>['🇺🇸', '🔴', '🇳🇱', '🔴', '🇺🇸', '🔴', '⚪', '🔵', '🔴', '⚪', '🔵']</t>
+  </si>
+  <si>
+    <t>['🛬', '🥴', '😴', '💤']</t>
+  </si>
+  <si>
+    <t>['🌞']</t>
+  </si>
+  <si>
+    <t>['👉', '👉', '👉']</t>
+  </si>
+  <si>
+    <t>['🍕']</t>
+  </si>
+  <si>
+    <t>['🔷', '🔹', '🔸', '🔶', '🏆', '🙌']</t>
+  </si>
+  <si>
+    <t>['🤷🏼\u200d♀️']</t>
+  </si>
+  <si>
+    <t>['\U0001f7e0', '🔵', '\U0001f7e0', '🔵', '\U0001f7e0', '🔵']</t>
+  </si>
+  <si>
+    <t>['🤔']</t>
+  </si>
+  <si>
+    <t>['❤️']</t>
+  </si>
+  <si>
+    <t>['🚨', '🚨', '🚗', '🚔']</t>
+  </si>
+  <si>
+    <t>['👩🏽\u200d💼', '✝️']</t>
+  </si>
+  <si>
+    <t>['😊']</t>
+  </si>
+  <si>
+    <t>['👉🏾']</t>
+  </si>
+  <si>
+    <t>['🇬🇧', '✌🏻']</t>
+  </si>
+  <si>
+    <t>['⚾', '💫', '🌏']</t>
+  </si>
+  <si>
+    <t>['🌹', '💐', '💐', '🌹']</t>
+  </si>
+  <si>
+    <t>['🐼']</t>
+  </si>
+  <si>
+    <t>['🇺🇸', '🥰', '🤗']</t>
+  </si>
+  <si>
+    <t>['🍧', '😛']</t>
+  </si>
+  <si>
+    <t>['🌧️', '🏳️\u200d🌈']</t>
+  </si>
+  <si>
+    <t>['🍸', '🥃', '\U0001f9ca']</t>
+  </si>
+  <si>
+    <t>['⬅️', '⬅️']</t>
+  </si>
+  <si>
+    <t>['💥']</t>
+  </si>
+  <si>
+    <t>['😎']</t>
+  </si>
+  <si>
+    <t>['💐', '🤱🏽', '👶🏽', '👩🏽\u200d👧🏽\u200d👦🏽']</t>
+  </si>
+  <si>
+    <t>['🥅', '🏃🏻\u200d♂️']</t>
+  </si>
+  <si>
+    <t>['🤣', '🤣', '🤣', '🤣', '🤣', '🤣', '🤣']</t>
+  </si>
+  <si>
+    <t>['🚣\u200d♂️', '🌊']</t>
+  </si>
+  <si>
+    <t>['🍸']</t>
+  </si>
+  <si>
     <t>['🤚']</t>
   </si>
   <si>
-    <t>['⬇️']</t>
-  </si>
-  <si>
-    <t>['4️⃣', '❤️', '🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '🧵', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '🗳️', '😃', '\U0001f7e0']</t>
-  </si>
-  <si>
-    <t>['🌨️', '❄️']</t>
-  </si>
-  <si>
-    <t>['🤷🏻\u200d♂️']</t>
-  </si>
-  <si>
-    <t>['🍜', '🍲', '😋', '❤️']</t>
-  </si>
-  <si>
-    <t>['💥', '💥']</t>
-  </si>
-  <si>
-    <t>['👇', '👇', '👇']</t>
-  </si>
-  <si>
-    <t>['☺️']</t>
-  </si>
-  <si>
-    <t>['😠', '📍']</t>
-  </si>
-  <si>
-    <t>['⚽', '🏃🏾\u200d♂️']</t>
-  </si>
-  <si>
-    <t>['🤣']</t>
-  </si>
-  <si>
-    <t>['🙄']</t>
-  </si>
-  <si>
-    <t>['🏔️', '🌲', '🌳']</t>
-  </si>
-  <si>
-    <t>['👉']</t>
-  </si>
-  <si>
-    <t>['🌮', '🌶️', '🥵']</t>
-  </si>
-  <si>
-    <t>['🤚', '🔵']</t>
-  </si>
-  <si>
-    <t>['💪', '🙏', '💪', '🙏', '💪', '🙏', '🔴']</t>
-  </si>
-  <si>
-    <t>['🚨', '🚨']</t>
-  </si>
-  <si>
-    <t>['🔥', '💥', '🔥', '⭐', '❤️', '⭐']</t>
+    <t>['💙', '🧡']</t>
+  </si>
+  <si>
+    <t>['4️⃣', '❤️', '🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '😃', '\U0001f7e0', '🧵']</t>
+  </si>
+  <si>
+    <t>['👇']</t>
+  </si>
+  <si>
+    <t>['❄️', '🌨️']</t>
+  </si>
+  <si>
+    <t>['❤️', '🍜', '🍲', '😋']</t>
+  </si>
+  <si>
+    <t>['📍', '😠']</t>
+  </si>
+  <si>
+    <t>['🌲', '🌳', '🏔️']</t>
+  </si>
+  <si>
+    <t>['🔵', '🤚']</t>
+  </si>
+  <si>
+    <t>['💪', '🔴', '🙏']</t>
+  </si>
+  <si>
+    <t>['🚨']</t>
+  </si>
+  <si>
+    <t>['❤️', '⭐', '💥', '🔥']</t>
   </si>
   <si>
     <t>['✝️', '❤️', '🔵']</t>
   </si>
   <si>
-    <t>['☕', '🍩']</t>
-  </si>
-  <si>
-    <t>['🚨', '💩', '😡', '🥾', '🐄']</t>
-  </si>
-  <si>
-    <t>['🍻', '🥂', '🎉']</t>
-  </si>
-  <si>
-    <t>['🌅']</t>
-  </si>
-  <si>
-    <t>['💨', '💨', '🤔', '🤔', '🤔']</t>
-  </si>
-  <si>
-    <t>['👉🏻', '👉🏻']</t>
-  </si>
-  <si>
-    <t>['🧡', '💙', '💙', '🧡']</t>
-  </si>
-  <si>
-    <t>['😋']</t>
-  </si>
-  <si>
-    <t>['👠', '👠']</t>
-  </si>
-  <si>
-    <t>['👩🏽\u200d💻', '🍿', '👀']</t>
-  </si>
-  <si>
-    <t>['😍', '🤩', '😍', '🤪']</t>
-  </si>
-  <si>
-    <t>['🌹', '🌹', '🌹', '🌹']</t>
-  </si>
-  <si>
-    <t>['😔', '📚', '👎🏻']</t>
-  </si>
-  <si>
-    <t>['😂']</t>
-  </si>
-  <si>
-    <t>['🎶']</t>
-  </si>
-  <si>
-    <t>['🔁', '📡', '🔊', '🔊']</t>
-  </si>
-  <si>
-    <t>['🤭', '🤭', '🤭']</t>
-  </si>
-  <si>
-    <t>['✈️', '🏖️', '🏝️', '🏊\u200d♀️', '🌞', '🌞']</t>
-  </si>
-  <si>
-    <t>['💯']</t>
-  </si>
-  <si>
-    <t>['😘']</t>
-  </si>
-  <si>
-    <t>['😍', '😍']</t>
-  </si>
-  <si>
-    <t>['😆', '🇺🇸', '🇺🇸', '⬇️']</t>
-  </si>
-  <si>
-    <t>['💐', '🌷', '🌸', '🌹', '🌻']</t>
-  </si>
-  <si>
-    <t>['🤬', '🤬', '🤬']</t>
-  </si>
-  <si>
-    <t>['☑️', '🙌']</t>
-  </si>
-  <si>
-    <t>['👏🏼']</t>
-  </si>
-  <si>
-    <t>['❤️', '🥰', '😘']</t>
-  </si>
-  <si>
-    <t>['🍉', '🧁']</t>
-  </si>
-  <si>
-    <t>['🔵', '👉🏽', '👉🏾', '🗳️']</t>
-  </si>
-  <si>
-    <t>['❄️', '☃️']</t>
-  </si>
-  <si>
-    <t>['⚾', '🔷', '🔶']</t>
-  </si>
-  <si>
-    <t>['✅', '✅', '✅', '✅']</t>
-  </si>
-  <si>
-    <t>['🇺🇸', '🔴', '🇳🇱', '🔴', '🇺🇸', '🔴', '⚪', '🔵', '🔴', '⚪', '🔵']</t>
-  </si>
-  <si>
-    <t>['🛬', '🥴', '😴', '💤']</t>
-  </si>
-  <si>
-    <t>['🌞']</t>
-  </si>
-  <si>
-    <t>['👉', '👉', '👉']</t>
-  </si>
-  <si>
-    <t>['🍕']</t>
-  </si>
-  <si>
-    <t>['🔷', '🔹', '🔸', '🔶', '🏆', '🙌']</t>
-  </si>
-  <si>
-    <t>['🤷🏼\u200d♀️']</t>
-  </si>
-  <si>
-    <t>['\U0001f7e0', '🔵']</t>
-  </si>
-  <si>
-    <t>['🤔']</t>
-  </si>
-  <si>
-    <t>['❤️']</t>
-  </si>
-  <si>
-    <t>['🚨', '🚨', '🚗', '🚔']</t>
-  </si>
-  <si>
-    <t>['👩🏽\u200d💼', '✝️']</t>
-  </si>
-  <si>
-    <t>['😊']</t>
-  </si>
-  <si>
-    <t>['👉🏾']</t>
-  </si>
-  <si>
-    <t>['🇬🇧', '✌🏻']</t>
-  </si>
-  <si>
-    <t>['⚾', '💫', '🌏']</t>
-  </si>
-  <si>
-    <t>['🌹', '💐', '💐', '🌹']</t>
-  </si>
-  <si>
-    <t>['🐼']</t>
-  </si>
-  <si>
-    <t>['🇺🇸', '🥰', '🤗']</t>
-  </si>
-  <si>
-    <t>['🍧', '😛']</t>
-  </si>
-  <si>
-    <t>['🌧️', '🏳️\u200d🌈']</t>
-  </si>
-  <si>
-    <t>['🍸', '🥃', '\U0001f9ca']</t>
-  </si>
-  <si>
-    <t>['⬅️', '⬅️']</t>
-  </si>
-  <si>
-    <t>['💥']</t>
-  </si>
-  <si>
-    <t>['😎']</t>
-  </si>
-  <si>
-    <t>['💐', '🤱🏽', '👶🏽', '👩🏽\u200d👧🏽\u200d👦🏽']</t>
-  </si>
-  <si>
-    <t>['🥅', '🏃🏻\u200d♂️']</t>
-  </si>
-  <si>
-    <t>['🤣', '🤣', '🤣', '🤣', '🤣', '🤣', '🤣']</t>
-  </si>
-  <si>
-    <t>['🚣\u200d♂️', '🌊']</t>
-  </si>
-  <si>
-    <t>['🍸']</t>
-  </si>
-  <si>
-    <t>['4️⃣', '❤️', '🇦🇺', '👨🏾\u200d👩🏾\u200d👧🏾\u200d👦🏾', '👩🏾\u200d💻', '👪🏿', '🗳️', '😃', '\U0001f7e0', '🧵']</t>
-  </si>
-  <si>
-    <t>['❄️', '🌨️']</t>
-  </si>
-  <si>
-    <t>['❤️', '🍜', '🍲', '😋']</t>
-  </si>
-  <si>
-    <t>['👇']</t>
-  </si>
-  <si>
-    <t>['📍', '😠']</t>
-  </si>
-  <si>
-    <t>['🌲', '🌳', '🏔️']</t>
-  </si>
-  <si>
-    <t>['🔵', '🤚']</t>
-  </si>
-  <si>
-    <t>['💪', '🔴', '🙏']</t>
-  </si>
-  <si>
-    <t>['🚨']</t>
-  </si>
-  <si>
-    <t>['❤️', '⭐', '💥', '🔥']</t>
-  </si>
-  <si>
     <t>['🐄', '💩', '😡', '🚨', '🥾']</t>
   </si>
   <si>
@@ -2189,9 +2180,6 @@
   </si>
   <si>
     <t>['👉🏻']</t>
-  </si>
-  <si>
-    <t>['💙', '🧡']</t>
   </si>
   <si>
     <t>['👠']</t>
@@ -2697,31 +2685,31 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L2" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2735,31 +2723,31 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2773,31 +2761,31 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G4" t="s">
-        <v>425</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L4" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2811,31 +2799,31 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2849,31 +2837,31 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K6" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="L6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2884,31 +2872,31 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2922,31 +2910,31 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>458</v>
       </c>
       <c r="I8" t="s">
-        <v>542</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>544</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>626</v>
       </c>
       <c r="L8" t="s">
-        <v>134</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2960,31 +2948,31 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="L9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2998,31 +2986,31 @@
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="L10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3036,31 +3024,31 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3074,31 +3062,31 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G12" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K12" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L12" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3112,31 +3100,31 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G13" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H13" t="s">
-        <v>465</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>538</v>
       </c>
       <c r="J13" t="s">
-        <v>552</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>635</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>714</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3150,31 +3138,31 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G14" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3188,31 +3176,31 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3226,31 +3214,31 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3264,31 +3252,31 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I17" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J17" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K17" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="L17" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3302,31 +3290,31 @@
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K18" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="L18" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3340,31 +3328,31 @@
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K19" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L19" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3378,31 +3366,31 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K20" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="L20" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3416,31 +3404,31 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G21" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I21" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J21" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K21" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="L21" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3454,31 +3442,31 @@
         <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I22" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J22" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K22" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L22" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3492,31 +3480,31 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3530,31 +3518,31 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G24" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K24" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L24" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3568,31 +3556,31 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K25" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L25" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3606,31 +3594,31 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G26" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K26" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="L26" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3644,31 +3632,31 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G27" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3682,31 +3670,31 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G28" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K28" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L28" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3720,31 +3708,31 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F29" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K29" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="L29" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3758,31 +3746,31 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K30" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L30" t="s">
-        <v>648</v>
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3796,31 +3784,31 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K31" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="L31" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3834,31 +3822,31 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H32" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K32" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3872,31 +3860,31 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G33" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H33" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K33" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="L33" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3910,31 +3898,31 @@
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="L34" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3948,31 +3936,31 @@
         <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K35" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L35" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3986,31 +3974,31 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F36" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J36" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K36" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L36" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4024,31 +4012,31 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F37" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G37" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J37" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K37" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L37" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4056,37 +4044,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="K38" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="L38" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4094,37 +4082,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F39" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K39" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="L39" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4132,37 +4120,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F40" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4170,37 +4158,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4208,37 +4196,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F42" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K42" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="L42" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4246,37 +4234,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4284,37 +4272,37 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4322,37 +4310,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K45" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L45" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4360,37 +4348,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G46" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H46" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J46" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K46" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="L46" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4398,37 +4386,37 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G47" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H47" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J47" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K47" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="L47" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4436,37 +4424,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="G48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H48" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J48" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K48" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="L48" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4474,37 +4462,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F49" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J49" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="K49" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L49" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4512,37 +4500,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F50" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K50" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="L50" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4550,37 +4538,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F51" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I51" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J51" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K51" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L51" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4588,37 +4576,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G52" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H52" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J52" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="K52" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="L52" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4626,37 +4614,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J53" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K53" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="L53" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4664,37 +4652,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="G54" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H54" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J54" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K54" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="L54" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4702,37 +4690,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J55" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K55" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="L55" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4740,37 +4728,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F56" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K56" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="L56" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4778,37 +4766,37 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F57" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G57" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H57" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="K57" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="L57" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4816,37 +4804,37 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F58" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G58" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H58" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="K58" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L58" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4854,37 +4842,37 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G59" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H59" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J59" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K59" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="L59" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4892,37 +4880,37 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F60" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H60" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J60" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="K60" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="L60" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4930,37 +4918,37 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F61" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I61" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J61" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K61" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L61" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4968,37 +4956,37 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F62" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K62" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="L62" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -5006,37 +4994,37 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F63" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H63" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J63" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K63" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L63" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -5044,37 +5032,37 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G64" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -5082,37 +5070,37 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F65" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J65" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K65" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="L65" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -5120,37 +5108,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F66" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J66" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K66" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="L66" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -5158,37 +5146,37 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F67" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G67" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -5196,37 +5184,37 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G68" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -5234,37 +5222,37 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69">
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -5272,37 +5260,37 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G70" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H70" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J70" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K70" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L70" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -5310,37 +5298,37 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F71" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G71" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H71" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J71" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K71" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="L71" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -5348,37 +5336,37 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72">
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F72" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G72" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H72" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J72" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K72" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="L72" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -5386,37 +5374,37 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E73" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F73" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="G73" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H73" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J73" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K73" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="L73" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5424,37 +5412,37 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J74" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K74" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L74" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5462,37 +5450,37 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F75" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H75" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I75" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J75" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K75" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="L75" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5500,37 +5488,37 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76">
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F76" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J76" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="K76" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="L76" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5538,37 +5526,37 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77">
         <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F77" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H77" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J77" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K77" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="L77" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5576,37 +5564,37 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78">
         <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5614,37 +5602,37 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79">
         <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F79" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G79" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H79" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J79" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K79" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="L79" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5652,37 +5640,37 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80">
         <v>70</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F80" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H80" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J80" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="K80" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L80" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5690,37 +5678,37 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F81" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J81" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="K81" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="L81" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5728,37 +5716,37 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F82" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G82" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H82" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I82" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J82" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K82" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="L82" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5766,37 +5754,37 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F83" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5804,37 +5792,37 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F84" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J84" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="K84" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="L84" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5842,37 +5830,37 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F85" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H85" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J85" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K85" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="L85" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5880,37 +5868,37 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F86" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G86" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H86" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="I86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J86" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K86" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="L86" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5918,37 +5906,37 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F87" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H87" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J87" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K87" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="L87" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5956,37 +5944,37 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88">
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F88" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G88" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H88" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J88" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="K88" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="L88" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5994,37 +5982,37 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E89" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -6032,37 +6020,37 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90">
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E90" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="G90" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H90" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J90" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K90" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="L90" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -6070,37 +6058,37 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F91" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G91" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H91" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J91" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K91" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="L91" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -6108,37 +6096,37 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E92" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F92" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -6146,37 +6134,37 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E93" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G93" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -6184,37 +6172,37 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94">
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E94" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H94" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J94" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K94" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="L94" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -6222,37 +6210,37 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E95" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F95" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G95" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H95" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J95" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="K95" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="L95" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -6260,37 +6248,37 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96">
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E96" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F96" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J96" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K96" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="L96" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -6298,37 +6286,37 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97">
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E97" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F97" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G97" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H97" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I97" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J97" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K97" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="L97" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -6336,37 +6324,37 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98">
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E98" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F98" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G98" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H98" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J98" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="K98" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L98" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -6374,37 +6362,37 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99">
         <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F99" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H99" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J99" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="K99" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="L99" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -6412,37 +6400,37 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100">
         <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E100" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F100" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H100" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J100" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K100" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="L100" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -6450,37 +6438,37 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101">
         <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E101" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F101" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G101" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -6488,37 +6476,37 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E102" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F102" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H102" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I102" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J102" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="K102" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="L102" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -6526,37 +6514,37 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103">
         <v>61</v>
       </c>
       <c r="D103" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E103" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F103" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G103" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H103" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J103" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="K103" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L103" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -6564,37 +6552,37 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104">
         <v>71</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F104" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G104" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H104" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I104" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J104" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K104" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="L104" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6602,37 +6590,37 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105">
         <v>83</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F105" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H105" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J105" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="K105" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="L105" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6640,37 +6628,37 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>89</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E106" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F106" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I106" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6678,37 +6666,37 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107">
         <v>99</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F107" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G107" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H107" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I107" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J107" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K107" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="L107" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6716,37 +6704,37 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108">
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E108" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F108" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H108" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I108" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J108" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K108" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="L108" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6754,37 +6742,37 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109">
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E109" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F109" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H109" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J109" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K109" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6792,37 +6780,37 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C110">
         <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E110" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F110" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H110" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I110" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J110" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K110" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="L110" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6830,37 +6818,37 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E111" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F111" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H111" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J111" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="K111" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="L111" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6868,37 +6856,37 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112">
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E112" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F112" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H112" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J112" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K112" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="L112" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6906,37 +6894,37 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113">
         <v>89</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F113" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H113" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J113" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="K113" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="L113" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6944,37 +6932,37 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114">
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E114" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F114" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G114" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H114" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J114" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K114" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="L114" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6982,37 +6970,37 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115">
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E115" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F115" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -7020,37 +7008,37 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116">
         <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E116" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F116" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H116" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J116" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K116" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="L116" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -7058,37 +7046,37 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117">
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E117" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F117" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H117" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J117" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="K117" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="L117" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -7096,37 +7084,37 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118">
         <v>52</v>
       </c>
       <c r="D118" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E118" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F118" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H118" t="s">
+        <v>535</v>
+      </c>
+      <c r="I118" t="s">
         <v>539</v>
       </c>
-      <c r="I118" t="s">
-        <v>543</v>
-      </c>
       <c r="J118" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K118" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="L118" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -7134,37 +7122,37 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E119" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F119" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G119" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H119" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I119" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J119" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K119" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="L119" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
